--- a/data/trans_bre/P41_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P41_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25,07</t>
+          <t>10,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,29</t>
+          <t>11,75</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-12,6</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-12,75</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>47,63%</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,79%</t>
+          <t>82,67%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-16,67%</t>
+          <t>77,42%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-16,25%</t>
+          <t>-12,22%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-7,24%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,18; 65,1</t>
+          <t>-9,51; 26,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 53,99</t>
+          <t>-7,96; 28,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-43,13; 19,87</t>
+          <t>-24,62; 14,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-39,95; 16,47</t>
+          <t>-22,83; 19,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,35; 255,2</t>
+          <t>-21,81; 15,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,91; 159,86</t>
+          <t>-44,79; 609,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-48,6; 34,44</t>
+          <t>-39,21; 401,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-45,99; 25,93</t>
+          <t>-69,76; 127,86</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-61,55; 170,81</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-68,08; 156,18</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-12,92</t>
+          <t>-21,76</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22,51</t>
+          <t>-4,29</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>-23,12</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>-9,01</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-24,17%</t>
+          <t>27,79%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>58,08%</t>
+          <t>-59,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>-12,46%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-48,53%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-35,27%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 26,42</t>
+          <t>-14,1; 21,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-40,49; 8,32</t>
+          <t>-51,77; -0,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 43,15</t>
+          <t>-34,68; 17,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,2; 25,04</t>
+          <t>-52,28; 0,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,79; 76,68</t>
+          <t>-53,98; 18,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,39; 21,06</t>
+          <t>-43,07; 184,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 173,97</t>
+          <t>-87,84; 0,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-35,96; 62,53</t>
+          <t>-68,67; 98,36</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-76,5; 7,0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-90,45; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>5,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-9,63</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-13,73</t>
+          <t>-3,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,57%</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-8,17%</t>
+          <t>62,17%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-33,05%</t>
+          <t>59,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-44,91%</t>
+          <t>12,1%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-27,86%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>73,21%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,51; 11,62</t>
+          <t>-4,43; 14,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,71; 12,14</t>
+          <t>-4,52; 15,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-29,37; 4,11</t>
+          <t>-10,58; 10,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-31,83; -0,3</t>
+          <t>-16,09; 5,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-53,58; 94,88</t>
+          <t>-4,92; 12,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-58,94; 82,41</t>
+          <t>-38,67; 452,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-67,99; 23,75</t>
+          <t>-34,38; 339,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-75,13; 2,28</t>
+          <t>-56,11; 178,41</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-71,91; 83,69</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-53,03; 582,2</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,3</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,3</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-4,02</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>71,12%</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>52,82%</t>
+          <t>21,62%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-3,53%</t>
+          <t>-9,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>-34,67%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-29,91%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>101,83%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 19,05</t>
+          <t>-6,77; 10,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 22,19</t>
+          <t>-10,33; 8,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,03; 9,46</t>
+          <t>-13,31; 3,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 12,32</t>
+          <t>-12,1; 5,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 276,92</t>
+          <t>-3,2; 12,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,83; 208,5</t>
+          <t>-54,15; 271,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-56,78; 101,26</t>
+          <t>-60,39; 142,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-51,58; 134,37</t>
+          <t>-77,29; 74,56</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-76,01; 109,28</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-54,99; 808,76</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,69</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,41</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>22,05</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>134,72%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>53,25%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>87,92%</t>
+          <t>27,86%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>201,26%</t>
+          <t>22,79%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>60,12%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1174,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 31,29</t>
+          <t>0,0; 9,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 23,38</t>
+          <t>-2,89; 7,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 32,71</t>
+          <t>-7,16; 10,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 46,42</t>
+          <t>-5,63; 12,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1098,12 +1204,22 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-68,2; 651,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-45,14; 1212,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1206,6 +1332,16 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,51</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,16</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>29,07%</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>53,52%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>-7,07%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-9,07%</t>
+          <t>-12,96%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-34,04%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-12,62%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 14,57</t>
+          <t>-0,12; 9,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 10,76</t>
+          <t>-9,84; 4,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 12,05</t>
+          <t>-10,23; 3,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 5,5</t>
+          <t>-16,75; -0,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 83,45</t>
+          <t>-17,46; 5,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-27,76; 44,65</t>
+          <t>-2,75; 150,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-20,06; 50,34</t>
+          <t>-47,47; 49,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-34,66; 18,83</t>
+          <t>-49,68; 34,96</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-61,97; -2,05</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-74,21; 113,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
